--- a/ADO_output.xlsx
+++ b/ADO_output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q153"/>
+  <dimension ref="A1:S153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,16 @@
           <t>Business Value (0 - 999)</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Cleaned Feature Title</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Cleaned User Story Title</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -558,11 +568,7 @@
           <t>Matthew Broderick</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>\</t>
@@ -582,6 +588,12 @@
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Add UMD "full de-ice event" dates flight model</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -623,7 +635,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -643,8 +655,16 @@
       <c r="O3" t="n">
         <v>2</v>
       </c>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" s="2" t="n">
+        <v>45661</v>
+      </c>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Compensation rates populating Concessions reports.</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -682,7 +702,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -702,8 +722,16 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Finance Source - Develop pull compensation rates</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -743,11 +771,7 @@
           <t>Chelesa Clinton</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>\</t>
@@ -767,6 +791,12 @@
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Migrate Pena traffic data source prod</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,7 +834,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>\Hydrangea</t>
+          <t>Hydrangea</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -824,8 +854,16 @@
       <c r="O6" t="n">
         <v>0</v>
       </c>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" s="2" t="n">
+        <v>45374</v>
+      </c>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Pena Traffic Data BI</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -863,7 +901,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -883,8 +921,16 @@
       <c r="O7" t="n">
         <v>0</v>
       </c>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Load historical data</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -922,7 +968,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -942,8 +988,16 @@
       <c r="O8" t="n">
         <v>0</v>
       </c>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" s="2" t="n">
+        <v>45437</v>
+      </c>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Build tabular model</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -981,7 +1035,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>\Hydrangea</t>
+          <t>Hydrangea</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1001,8 +1055,16 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" s="2" t="n">
+        <v>45374</v>
+      </c>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Deploy Prod</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1038,11 +1100,7 @@
           <t>Jake From StateFarm</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>\</t>
@@ -1062,6 +1120,12 @@
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>FCR (fist contact resolution) Service report power BI dashboard.</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1103,7 +1167,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1124,9 +1188,15 @@
         <v>2</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>45424.75</v>
+        <v>45661</v>
       </c>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Service Desk dashboards</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1164,7 +1234,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>\Dahlia</t>
+          <t>Dahlia</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1184,8 +1254,16 @@
       <c r="O12" t="n">
         <v>0</v>
       </c>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" s="2" t="n">
+        <v>45395</v>
+      </c>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Modify Service Desk dashboards</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1223,7 +1301,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1245,8 +1323,16 @@
       <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Fix / enhance Service Desk dashboards</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1282,11 +1368,7 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>\</t>
@@ -1306,6 +1388,12 @@
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Service Desk cross training</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1341,11 +1429,7 @@
           <t>Lisa Bonet</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>\</t>
@@ -1365,6 +1449,12 @@
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Pena Crash Data</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1400,11 +1490,7 @@
           <t>Bryan Adams</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>\</t>
@@ -1424,6 +1510,12 @@
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Shuttle Reports based data reporting system</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1459,11 +1551,7 @@
           <t>Larry Wilmore</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>\</t>
@@ -1483,6 +1571,12 @@
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Controls project</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1518,11 +1612,7 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>\</t>
@@ -1542,6 +1632,12 @@
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Get requirements / scope</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1577,11 +1673,7 @@
           <t>Tina Fey</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>\</t>
@@ -1601,6 +1693,12 @@
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>DEN Commercial Dashboard 2.0</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1636,11 +1734,7 @@
           <t>Rebecca DeMornay</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>\</t>
@@ -1660,6 +1754,12 @@
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Connectors Migration</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1691,11 +1791,7 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>\</t>
@@ -1715,6 +1811,12 @@
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Create list solutions</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1750,11 +1852,7 @@
           <t>Tracy Chapman</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>\</t>
@@ -1774,6 +1872,12 @@
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Connect external weather dataset Snow Dashboards probably via API help team better tell story runway downtime.</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1809,11 +1913,7 @@
           <t>Tracy Chapman</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>\</t>
@@ -1833,6 +1933,12 @@
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Update Maintenance database</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1868,11 +1974,7 @@
           <t>Matthew Broderick</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>\</t>
@@ -1892,6 +1994,12 @@
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>New measure train system</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1929,7 +2037,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Anemone</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1949,8 +2057,16 @@
       <c r="O25" t="n">
         <v>2</v>
       </c>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" s="2" t="n">
+        <v>45777</v>
+      </c>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Comms Center Dashboard</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1988,7 +2104,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>\Sunflower</t>
+          <t>Sunflower</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2008,8 +2124,16 @@
       <c r="O26" t="n">
         <v>0</v>
       </c>
-      <c r="P26" t="inlineStr"/>
+      <c r="P26" s="2" t="n">
+        <v>45416</v>
+      </c>
       <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Outbound Phone calls vendor 1 - update dashboard</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2047,7 +2171,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2069,8 +2193,16 @@
       <c r="O27" t="n">
         <v>0</v>
       </c>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Phone Calls Vendor 2 - update dashboard</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2108,7 +2240,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>\Hydrangea</t>
+          <t>Hydrangea</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2128,8 +2260,16 @@
       <c r="O28" t="n">
         <v>0</v>
       </c>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" s="2" t="n">
+        <v>45374</v>
+      </c>
       <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Airport Alarms (update dashboards)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2167,7 +2307,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2187,8 +2327,16 @@
       <c r="O29" t="n">
         <v>0</v>
       </c>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Notification System - integration design</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2222,7 +2370,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>\Carnation</t>
+          <t>Carnation</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2242,8 +2390,16 @@
       <c r="O30" t="n">
         <v>0</v>
       </c>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" s="2" t="n">
+        <v>45641</v>
+      </c>
       <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Notification System - SSIS development</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2277,7 +2433,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>\Carnation</t>
+          <t>Carnation</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2297,8 +2453,16 @@
       <c r="O31" t="n">
         <v>0</v>
       </c>
-      <c r="P31" t="inlineStr"/>
+      <c r="P31" s="2" t="n">
+        <v>45641</v>
+      </c>
       <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Notification System - Tabular model development</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2332,7 +2496,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>\Carnation</t>
+          <t>Carnation</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2352,8 +2516,16 @@
       <c r="O32" t="n">
         <v>0</v>
       </c>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" s="2" t="n">
+        <v>45641</v>
+      </c>
       <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Notification System - create dashboard</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2389,11 +2561,7 @@
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>\</t>
@@ -2413,6 +2581,12 @@
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Radio calls - update dashboard</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2448,11 +2622,7 @@
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>\</t>
@@ -2472,6 +2642,12 @@
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Crisis Management Software Log Book Entries - requirements</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2509,7 +2685,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>\Hydrangea</t>
+          <t>Hydrangea</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2529,8 +2705,16 @@
       <c r="O35" t="n">
         <v>0</v>
       </c>
-      <c r="P35" t="inlineStr"/>
+      <c r="P35" s="2" t="n">
+        <v>45374</v>
+      </c>
       <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Crisis Management Software Parking Log Items</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2566,11 +2750,7 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>\</t>
@@ -2590,6 +2770,12 @@
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Teams interactions - requirements</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2627,7 +2813,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>\Hydrangea</t>
+          <t>Hydrangea</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2647,8 +2833,16 @@
       <c r="O37" t="n">
         <v>0</v>
       </c>
-      <c r="P37" t="inlineStr"/>
+      <c r="P37" s="2" t="n">
+        <v>45374</v>
+      </c>
       <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Single data model - Phone Calls data Vendor 1 2</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2684,11 +2878,7 @@
           <t>Tracy Chapman</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>\</t>
@@ -2708,6 +2898,12 @@
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>OPs Security Screening Occupancy Reporting</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2743,11 +2939,7 @@
           <t>Bryan Adams</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>\</t>
@@ -2767,6 +2959,12 @@
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Parking - Add Forecasting capability Parking Transportation dashboards</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2798,11 +2996,7 @@
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>\</t>
@@ -2822,6 +3016,12 @@
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Add forecasting capability dashboards</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2853,11 +3053,7 @@
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>\</t>
@@ -2877,6 +3073,12 @@
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Gather requirements</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2912,11 +3114,7 @@
           <t>Bryan Adams</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>\</t>
@@ -2936,6 +3134,12 @@
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Parking - Rideshare 10 15 min granular level detail</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2967,11 +3171,7 @@
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>\</t>
@@ -2991,6 +3191,12 @@
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Add ability drill level granularity detail</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3030,11 +3236,7 @@
           <t>Nate Bargatze</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>\</t>
@@ -3054,6 +3256,12 @@
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Create platform people counter report</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3091,7 +3299,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>\Sunflower</t>
+          <t>Sunflower</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3111,8 +3319,16 @@
       <c r="O45" t="n">
         <v>0</v>
       </c>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" s="2" t="n">
+        <v>45416</v>
+      </c>
       <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Create integration people counter report</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3150,7 +3366,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>\Jasmine</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3170,8 +3386,16 @@
       <c r="O46" t="n">
         <v>0</v>
       </c>
-      <c r="P46" t="inlineStr"/>
+      <c r="P46" s="2" t="n">
+        <v>45437</v>
+      </c>
       <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Create tabular model people counter</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3209,7 +3433,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>\Jasmine</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3229,8 +3453,16 @@
       <c r="O47" t="n">
         <v>0</v>
       </c>
-      <c r="P47" t="inlineStr"/>
+      <c r="P47" s="2" t="n">
+        <v>45437</v>
+      </c>
       <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Create dashboard people counters</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3268,7 +3500,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Lily</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3288,8 +3520,16 @@
       <c r="O48" t="n">
         <v>4</v>
       </c>
-      <c r="P48" t="inlineStr"/>
+      <c r="P48" s="2" t="n">
+        <v>45682</v>
+      </c>
       <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Procurement Opportunities Flydenver API Gateway</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3327,7 +3567,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>\Zinnia</t>
+          <t>Zinnia</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3347,8 +3587,16 @@
       <c r="O49" t="n">
         <v>0</v>
       </c>
-      <c r="P49" t="inlineStr"/>
+      <c r="P49" s="2" t="n">
+        <v>45458</v>
+      </c>
       <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3386,7 +3634,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>\Zinnia</t>
+          <t>Zinnia</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3408,8 +3656,16 @@
       <c r="O50" t="n">
         <v>0</v>
       </c>
-      <c r="P50" t="inlineStr"/>
+      <c r="P50" s="2" t="n">
+        <v>45458</v>
+      </c>
       <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>SSIS integration Sharepoint data gateway</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3447,7 +3703,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3467,8 +3723,16 @@
       <c r="O51" t="n">
         <v>0</v>
       </c>
-      <c r="P51" t="inlineStr"/>
+      <c r="P51" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Deploy Data Gateway</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3504,11 +3768,7 @@
           <t>Michelle Obama</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>\</t>
@@ -3528,6 +3788,12 @@
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Update SSRS Business Directory Report ADA Complaint.</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3563,11 +3829,7 @@
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>\</t>
@@ -3587,6 +3849,12 @@
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Update report</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3622,11 +3890,7 @@
           <t>Mark Cuban</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>\</t>
@@ -3646,6 +3910,12 @@
       </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Parking - Lost Found Dashboard</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3683,7 +3953,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Snapdragon</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3703,8 +3973,16 @@
       <c r="O55" t="n">
         <v>3</v>
       </c>
-      <c r="P55" t="inlineStr"/>
+      <c r="P55" s="2" t="n">
+        <v>45724</v>
+      </c>
       <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Capture concessionaire transaction data concessions warehouse.</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3742,7 +4020,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>\Lavender</t>
+          <t>Lavender</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3762,8 +4040,16 @@
       <c r="O56" t="n">
         <v>0</v>
       </c>
-      <c r="P56" t="inlineStr"/>
+      <c r="P56" s="2" t="n">
+        <v>45500</v>
+      </c>
       <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Load transactions connect API</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3801,7 +4087,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3821,8 +4107,16 @@
       <c r="O57" t="n">
         <v>0</v>
       </c>
-      <c r="P57" t="inlineStr"/>
+      <c r="P57" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Concession - Transactions Count Demo &amp; UAT</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3858,11 +4152,7 @@
           <t>Matthew Broderick</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>\</t>
@@ -3882,6 +4172,12 @@
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Baggage Handling System data DEN Data Warehouse</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3919,7 +4215,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>\Daffodil</t>
+          <t>Daffodil</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3939,8 +4235,16 @@
       <c r="O59" t="n">
         <v>0</v>
       </c>
-      <c r="P59" t="inlineStr"/>
+      <c r="P59" s="2" t="n">
+        <v>45479</v>
+      </c>
       <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Test connectivity LogPlan Server</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3976,11 +4280,7 @@
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>\</t>
@@ -4000,6 +4300,12 @@
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Extract, transform load data</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4041,7 +4347,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Bluebell</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4061,8 +4367,16 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
-      <c r="P61" t="inlineStr"/>
+      <c r="P61" s="2" t="n">
+        <v>45745</v>
+      </c>
       <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Expanding data passed us People counter source via API</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4096,7 +4410,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4116,8 +4430,16 @@
       <c r="O62" t="n">
         <v>0</v>
       </c>
-      <c r="P62" t="inlineStr"/>
+      <c r="P62" s="2" t="n">
+        <v>45437</v>
+      </c>
       <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Rob look data integration API</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4155,7 +4477,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>\Lavender</t>
+          <t>Lavender</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4177,8 +4499,16 @@
       <c r="O63" t="n">
         <v>0</v>
       </c>
-      <c r="P63" t="inlineStr"/>
+      <c r="P63" s="2" t="n">
+        <v>45500</v>
+      </c>
       <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Gathering requirements</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4216,7 +4546,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4238,8 +4568,16 @@
       <c r="O64" t="n">
         <v>0</v>
       </c>
-      <c r="P64" t="inlineStr"/>
+      <c r="P64" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Expand people counter data</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4277,7 +4615,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4297,8 +4635,16 @@
       <c r="O65" t="n">
         <v>0</v>
       </c>
-      <c r="P65" t="inlineStr"/>
+      <c r="P65" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Develop SSIS integration</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4334,11 +4680,7 @@
           <t>Robert Downey</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>\</t>
@@ -4358,6 +4700,12 @@
       </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Request Reports People counter data</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4393,11 +4741,7 @@
           <t>Lawrence Taylor</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>\</t>
@@ -4417,6 +4761,12 @@
       </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Concessions gross sales report - ADA compliant</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4452,11 +4802,7 @@
           <t>George Clooney</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>\</t>
@@ -4476,6 +4822,12 @@
       </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Update Airline stats SSRS report ADA Compliant.</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4511,11 +4863,7 @@
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>\</t>
@@ -4535,6 +4883,12 @@
       </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Create SSRS report ADA Compliant</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4570,11 +4924,7 @@
           <t>Steve Martin</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>\</t>
@@ -4594,6 +4944,12 @@
       </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Add Search Fuel form process</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4631,7 +4987,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4653,8 +5009,16 @@
       <c r="O71" t="n">
         <v>0</v>
       </c>
-      <c r="P71" t="inlineStr"/>
+      <c r="P71" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Gather Fuel requirements</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4690,11 +5054,7 @@
           <t>Travis Barker</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>\</t>
@@ -4714,6 +5074,12 @@
       </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Non-Production Network Production/Inventory Values Cost Estimation sheets need adjusting/correcting (use attached docs)</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4749,11 +5115,7 @@
           <t>Eliot Page</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>\</t>
@@ -4773,6 +5135,12 @@
       </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Add procurement data data warehouse</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4810,7 +5178,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>\Zinnia</t>
+          <t>Zinnia</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4830,8 +5198,16 @@
       <c r="O74" t="n">
         <v>0</v>
       </c>
-      <c r="P74" t="inlineStr"/>
+      <c r="P74" s="2" t="n">
+        <v>45458</v>
+      </c>
       <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Provide advice Procurement software</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4873,7 +5249,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Lily</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4893,8 +5269,16 @@
       <c r="O75" t="n">
         <v>2</v>
       </c>
-      <c r="P75" t="inlineStr"/>
+      <c r="P75" s="2" t="n">
+        <v>45682</v>
+      </c>
       <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Parking Data coming online Contractor</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4932,7 +5316,7 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>\Hydrangea</t>
+          <t>Hydrangea</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4952,8 +5336,16 @@
       <c r="O76" t="n">
         <v>0</v>
       </c>
-      <c r="P76" t="inlineStr"/>
+      <c r="P76" s="2" t="n">
+        <v>45374</v>
+      </c>
       <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Research vendor docs API requirements</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4991,7 +5383,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>\Lavender</t>
+          <t>Lavender</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5013,8 +5405,16 @@
       <c r="O77" t="n">
         <v>0</v>
       </c>
-      <c r="P77" t="inlineStr"/>
+      <c r="P77" s="2" t="n">
+        <v>45500</v>
+      </c>
       <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Map parking data file existing parking table.</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5052,7 +5452,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5074,8 +5474,16 @@
       <c r="O78" t="n">
         <v>0</v>
       </c>
-      <c r="P78" t="inlineStr"/>
+      <c r="P78" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Parking - Update SSIS Integration Daily Transaction Data.</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5111,11 +5519,7 @@
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>\</t>
@@ -5135,6 +5539,12 @@
       </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Develop SSIS integration Occupancy Data - Near Realtime.</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5170,11 +5580,7 @@
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>\</t>
@@ -5194,6 +5600,12 @@
       </c>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Update Tabular Model Transaction Data.</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5231,7 +5643,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>\Lavender</t>
+          <t>Lavender</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5253,6 +5665,12 @@
       </c>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Crisis Management Workflow API Call Proof Concept/Documentation</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5288,11 +5706,7 @@
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>\</t>
@@ -5314,6 +5728,12 @@
       </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Workflow data Integration Crisis Management Software Workflow</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5349,11 +5769,7 @@
           <t>Lawrence Taylor</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>\</t>
@@ -5373,6 +5789,12 @@
       </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Updates Concession Incentive Program</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5414,7 +5836,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Bluebell</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5434,8 +5856,16 @@
       <c r="O84" t="n">
         <v>2</v>
       </c>
-      <c r="P84" t="inlineStr"/>
+      <c r="P84" s="2" t="n">
+        <v>45745</v>
+      </c>
       <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Review update DW due 'decustomizing' Maintnance source fields / Maintenance source reimplementation</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5473,7 +5903,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5493,8 +5923,16 @@
       <c r="O85" t="n">
         <v>0</v>
       </c>
-      <c r="P85" t="inlineStr"/>
+      <c r="P85" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Maintenance source - Review technical document</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5532,7 +5970,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5554,8 +5992,16 @@
       <c r="O86" t="n">
         <v>0</v>
       </c>
-      <c r="P86" t="inlineStr"/>
+      <c r="P86" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Maven Sprint 2 development</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5591,11 +6037,7 @@
           <t>Eliot Page</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>\</t>
@@ -5615,6 +6057,12 @@
       </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Create new data fields Maintenance Data warehouse</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5650,11 +6098,7 @@
           <t>Tracy Chapman</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>\</t>
@@ -5674,6 +6118,12 @@
       </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Add concourse Flight Schedule Analytical tabular model</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5709,11 +6159,7 @@
           <t>Lawrence Taylor</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>\</t>
@@ -5733,6 +6179,12 @@
       </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>PowerBI query Finance Source</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5768,11 +6220,7 @@
           <t>Renee Zellwegger</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>\</t>
@@ -5792,6 +6240,12 @@
       </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Add field Employee Extract file Database</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5833,7 +6287,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Snapdragon</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5853,8 +6307,16 @@
       <c r="O91" t="n">
         <v>2</v>
       </c>
-      <c r="P91" t="inlineStr"/>
+      <c r="P91" s="2" t="n">
+        <v>45724</v>
+      </c>
       <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>need Snow data Crisis Management source moved Data Warehouse</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5892,7 +6354,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5912,8 +6374,16 @@
       <c r="O92" t="n">
         <v>0</v>
       </c>
-      <c r="P92" t="inlineStr"/>
+      <c r="P92" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Crisis Management Source- Snow requirements gathering</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5949,11 +6419,7 @@
           <t>Derek Henry</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>\</t>
@@ -5973,6 +6439,12 @@
       </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Snow Deactivation data model source Power BI DEN Snow Dashboard</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6008,11 +6480,7 @@
           <t>Chelesa Clinton</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>\</t>
@@ -6032,6 +6500,12 @@
       </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Pull regulation data submissions database GIS team access data</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6067,11 +6541,7 @@
           <t>Eliot Page</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>\</t>
@@ -6091,6 +6561,12 @@
       </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Biometric Exit dashboard request</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6126,11 +6602,7 @@
           <t>Matthew Broderick</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>\</t>
@@ -6150,6 +6622,12 @@
       </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Service Request Data Warehouse, need "SENT TO" field created</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6191,7 +6669,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Marigold</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6211,8 +6689,16 @@
       <c r="O97" t="n">
         <v>1</v>
       </c>
-      <c r="P97" t="inlineStr"/>
+      <c r="P97" s="2" t="n">
+        <v>45703</v>
+      </c>
       <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>Airport ops data extract DEN BI data warehouse</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6250,7 +6736,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6272,8 +6758,16 @@
       <c r="O98" t="n">
         <v>0</v>
       </c>
-      <c r="P98" t="inlineStr"/>
+      <c r="P98" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>Airport Ops - Research existing FIDS reports requirements</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6315,7 +6809,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Marigold</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6335,8 +6829,16 @@
       <c r="O99" t="n">
         <v>4</v>
       </c>
-      <c r="P99" t="inlineStr"/>
+      <c r="P99" s="2" t="n">
+        <v>45703</v>
+      </c>
       <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>CNG Crisis Management report</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6378,7 +6880,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6398,8 +6900,16 @@
       <c r="O100" t="n">
         <v>0</v>
       </c>
-      <c r="P100" t="inlineStr"/>
+      <c r="P100" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Load Screening Q3 data</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6441,7 +6951,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6461,8 +6971,16 @@
       <c r="O101" t="n">
         <v>4</v>
       </c>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Insurance data Power BI</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6504,7 +7022,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>\Poppy</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -6524,8 +7042,16 @@
       <c r="O102" t="n">
         <v>1</v>
       </c>
-      <c r="P102" t="inlineStr"/>
+      <c r="P102" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Products data cleanup</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6567,7 +7093,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Zinnia</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -6587,8 +7113,16 @@
       <c r="O103" t="n">
         <v>2</v>
       </c>
-      <c r="P103" t="inlineStr"/>
+      <c r="P103" s="2" t="n">
+        <v>45458</v>
+      </c>
       <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Sustainability Dashboards</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6626,7 +7160,7 @@
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>\Chrysanthemum</t>
+          <t>Chrysanthemum</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6646,8 +7180,16 @@
       <c r="O104" t="n">
         <v>2</v>
       </c>
-      <c r="P104" t="inlineStr"/>
+      <c r="P104" s="2" t="n">
+        <v>45521</v>
+      </c>
       <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>Greenhouse Gas Emissions Dashboard</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6685,7 +7227,7 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Orchid</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6705,8 +7247,16 @@
       <c r="O105" t="n">
         <v>2</v>
       </c>
-      <c r="P105" t="inlineStr"/>
+      <c r="P105" s="2" t="n">
+        <v>45584</v>
+      </c>
       <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>Energy Sustainability Dashboard</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6744,7 +7294,7 @@
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>\Hibiscus</t>
+          <t>Hibiscus</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -6764,8 +7314,16 @@
       <c r="O106" t="n">
         <v>0</v>
       </c>
-      <c r="P106" t="inlineStr"/>
+      <c r="P106" s="2" t="n">
+        <v>45542</v>
+      </c>
       <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>Compost Trash Data Integration</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6803,7 +7361,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>\Hibiscus</t>
+          <t>Hibiscus</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6823,8 +7381,16 @@
       <c r="O107" t="n">
         <v>0</v>
       </c>
-      <c r="P107" t="inlineStr"/>
+      <c r="P107" s="2" t="n">
+        <v>45542</v>
+      </c>
       <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>User training Greenhouse dashboard</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6862,7 +7428,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>\Gardenia</t>
+          <t>Gardenia</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -6882,8 +7448,16 @@
       <c r="O108" t="n">
         <v>0</v>
       </c>
-      <c r="P108" t="inlineStr"/>
+      <c r="P108" s="2" t="n">
+        <v>45563</v>
+      </c>
       <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>Jet Fuel Data</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6921,7 +7495,7 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>\Gardenia</t>
+          <t>Gardenia</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6941,8 +7515,16 @@
       <c r="O109" t="n">
         <v>0</v>
       </c>
-      <c r="P109" t="inlineStr"/>
+      <c r="P109" s="2" t="n">
+        <v>45563</v>
+      </c>
       <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Propane Gas Data</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6980,7 +7562,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>\Orchid</t>
+          <t>Orchid</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -7000,8 +7582,16 @@
       <c r="O110" t="n">
         <v>0</v>
       </c>
-      <c r="P110" t="inlineStr"/>
+      <c r="P110" s="2" t="n">
+        <v>45584</v>
+      </c>
       <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Update Energy dashboards remove Inforiver formatting</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -7039,7 +7629,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>\Gardenia</t>
+          <t>Gardenia</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -7059,8 +7649,16 @@
       <c r="O111" t="n">
         <v>0</v>
       </c>
-      <c r="P111" t="inlineStr"/>
+      <c r="P111" s="2" t="n">
+        <v>45563</v>
+      </c>
       <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>Combine fuel sources one dashboard</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -7098,7 +7696,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>\Orchid</t>
+          <t>Orchid</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -7118,8 +7716,16 @@
       <c r="O112" t="n">
         <v>0</v>
       </c>
-      <c r="P112" t="inlineStr"/>
+      <c r="P112" s="2" t="n">
+        <v>45584</v>
+      </c>
       <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>Build Emission Dashboard</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7161,7 +7767,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>\Jasmine</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -7181,8 +7787,16 @@
       <c r="O113" t="n">
         <v>2</v>
       </c>
-      <c r="P113" t="inlineStr"/>
+      <c r="P113" s="2" t="n">
+        <v>45437</v>
+      </c>
       <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>Upgrade latest version - Connector 1</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7220,7 +7834,7 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>\Jasmine</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -7240,8 +7854,16 @@
       <c r="O114" t="n">
         <v>0</v>
       </c>
-      <c r="P114" t="inlineStr"/>
+      <c r="P114" s="2" t="n">
+        <v>45437</v>
+      </c>
       <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7279,7 +7901,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Lavender</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -7299,8 +7921,16 @@
       <c r="O115" t="n">
         <v>2</v>
       </c>
-      <c r="P115" t="inlineStr"/>
+      <c r="P115" s="2" t="n">
+        <v>45500</v>
+      </c>
       <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>Power BI dashboard Network devices age</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7338,7 +7968,7 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>\Hibiscus</t>
+          <t>Hibiscus</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -7358,8 +7988,16 @@
       <c r="O116" t="n">
         <v>0</v>
       </c>
-      <c r="P116" t="inlineStr"/>
+      <c r="P116" s="2" t="n">
+        <v>45542</v>
+      </c>
       <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>Scoping - Power BI dashboard Network devices age</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7397,7 +8035,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>\Dahlia</t>
+          <t>Dahlia</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -7417,8 +8055,16 @@
       <c r="O117" t="n">
         <v>0</v>
       </c>
-      <c r="P117" t="inlineStr"/>
+      <c r="P117" s="2" t="n">
+        <v>45395</v>
+      </c>
       <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>Network Device Age - Build Dashboard</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7460,7 +8106,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -7480,8 +8126,16 @@
       <c r="O118" t="n">
         <v>2</v>
       </c>
-      <c r="P118" t="inlineStr"/>
+      <c r="P118" s="2" t="n">
+        <v>45437</v>
+      </c>
       <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Updates concessions gross sales</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7519,7 +8173,7 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Hydrangea</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -7539,8 +8193,16 @@
       <c r="O119" t="n">
         <v>0</v>
       </c>
-      <c r="P119" t="inlineStr"/>
+      <c r="P119" s="2" t="n">
+        <v>45374</v>
+      </c>
       <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>Updates concessions gross sales</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7578,7 +8240,7 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>\Lavender</t>
+          <t>Lavender</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -7598,8 +8260,16 @@
       <c r="O120" t="n">
         <v>0</v>
       </c>
-      <c r="P120" t="inlineStr"/>
+      <c r="P120" s="2" t="n">
+        <v>45500</v>
+      </c>
       <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>Deploy PROD</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7637,7 +8307,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Orchid</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -7657,8 +8327,16 @@
       <c r="O121" t="n">
         <v>3</v>
       </c>
-      <c r="P121" t="inlineStr"/>
+      <c r="P121" s="2" t="n">
+        <v>45584</v>
+      </c>
       <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>ADA Monthly Service Reports Automation</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7696,7 +8374,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>\Lavender</t>
+          <t>Lavender</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -7716,8 +8394,16 @@
       <c r="O122" t="n">
         <v>0</v>
       </c>
-      <c r="P122" t="inlineStr"/>
+      <c r="P122" s="2" t="n">
+        <v>45500</v>
+      </c>
       <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>Research / Gather Requirements</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7755,7 +8441,7 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>\Zinnia</t>
+          <t>Zinnia</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -7777,8 +8463,16 @@
       <c r="O123" t="n">
         <v>0</v>
       </c>
-      <c r="P123" t="inlineStr"/>
+      <c r="P123" s="2" t="n">
+        <v>45458</v>
+      </c>
       <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>Development - ADA Vendor 1 Automation</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7816,7 +8510,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>\Zinnia</t>
+          <t>Zinnia</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -7838,8 +8532,16 @@
       <c r="O124" t="n">
         <v>0</v>
       </c>
-      <c r="P124" t="inlineStr"/>
+      <c r="P124" s="2" t="n">
+        <v>45458</v>
+      </c>
       <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>Development - ADA Vendor 2 Automation</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7877,7 +8579,7 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>\Zinnia</t>
+          <t>Zinnia</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -7899,8 +8601,16 @@
       <c r="O125" t="n">
         <v>0</v>
       </c>
-      <c r="P125" t="inlineStr"/>
+      <c r="P125" s="2" t="n">
+        <v>45458</v>
+      </c>
       <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>Development - ADA Kiosks Automation</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7938,7 +8648,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>\Zinnia</t>
+          <t>Zinnia</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -7960,8 +8670,16 @@
       <c r="O126" t="n">
         <v>0</v>
       </c>
-      <c r="P126" t="inlineStr"/>
+      <c r="P126" s="2" t="n">
+        <v>45458</v>
+      </c>
       <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>Development - ADA Vendor 3 Automation</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7999,7 +8717,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>\Tulip</t>
+          <t>Tulip</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -8020,9 +8738,15 @@
         <v>0</v>
       </c>
       <c r="P127" s="2" t="n">
-        <v>45424.75</v>
+        <v>45605</v>
       </c>
       <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>need pull data parking vendor data warehouse enable regular reporting Parking Lot Capacity</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -8060,7 +8784,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>\Tulip</t>
+          <t>Tulip</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -8080,8 +8804,16 @@
       <c r="O128" t="n">
         <v>0</v>
       </c>
-      <c r="P128" t="inlineStr"/>
+      <c r="P128" s="2" t="n">
+        <v>45605</v>
+      </c>
       <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>Research data</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -8119,7 +8851,7 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>\Dahlia</t>
+          <t>Dahlia</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -8139,8 +8871,16 @@
       <c r="O129" t="n">
         <v>0</v>
       </c>
-      <c r="P129" t="inlineStr"/>
+      <c r="P129" s="2" t="n">
+        <v>45395</v>
+      </c>
       <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>Pull data warehouse</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -8178,7 +8918,7 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>\Daffodil</t>
+          <t>Daffodil</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -8198,8 +8938,16 @@
       <c r="O130" t="n">
         <v>0</v>
       </c>
-      <c r="P130" t="inlineStr"/>
+      <c r="P130" s="2" t="n">
+        <v>45479</v>
+      </c>
       <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>UAT - Parking stats</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8237,7 +8985,7 @@
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>\Daffodil</t>
+          <t>Daffodil</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -8257,8 +9005,16 @@
       <c r="O131" t="n">
         <v>0</v>
       </c>
-      <c r="P131" t="inlineStr"/>
+      <c r="P131" s="2" t="n">
+        <v>45479</v>
+      </c>
       <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>Production Deployment - Parking Stats</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8296,7 +9052,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Daffodil</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -8316,8 +9072,16 @@
       <c r="O132" t="n">
         <v>1</v>
       </c>
-      <c r="P132" t="inlineStr"/>
+      <c r="P132" s="2" t="n">
+        <v>45479</v>
+      </c>
       <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>Self Bagdrop Dashboard Enhancement</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8355,7 +9119,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>\Tulip</t>
+          <t>Tulip</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -8375,8 +9139,16 @@
       <c r="O133" t="n">
         <v>0</v>
       </c>
-      <c r="P133" t="inlineStr"/>
+      <c r="P133" s="2" t="n">
+        <v>45605</v>
+      </c>
       <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>Add additional dashboards</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8414,7 +9186,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Poppy</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -8434,8 +9206,16 @@
       <c r="O134" t="n">
         <v>0</v>
       </c>
-      <c r="P134" t="inlineStr"/>
+      <c r="P134" s="2" t="n">
+        <v>45626</v>
+      </c>
       <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>Maintenance software rehosting testing</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8473,7 +9253,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>\Dahlia</t>
+          <t>Dahlia</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -8493,8 +9273,16 @@
       <c r="O135" t="n">
         <v>0</v>
       </c>
-      <c r="P135" t="inlineStr"/>
+      <c r="P135" s="2" t="n">
+        <v>45395</v>
+      </c>
       <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>Maintenance Software connectivity testing</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8532,7 +9320,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Hibiscus</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -8552,8 +9340,16 @@
       <c r="O136" t="n">
         <v>0</v>
       </c>
-      <c r="P136" t="inlineStr"/>
+      <c r="P136" s="2" t="n">
+        <v>45542</v>
+      </c>
       <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>Add Previous Week Page Report OPS Ramp Tower Metrics</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8591,7 +9387,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -8611,8 +9407,16 @@
       <c r="O137" t="n">
         <v>4</v>
       </c>
-      <c r="P137" t="inlineStr"/>
+      <c r="P137" s="2" t="n">
+        <v>45437</v>
+      </c>
       <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>OPS Time Performance Report</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8650,7 +9454,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -8670,8 +9474,16 @@
       <c r="O138" t="n">
         <v>1</v>
       </c>
-      <c r="P138" t="inlineStr"/>
+      <c r="P138" s="2" t="n">
+        <v>45437</v>
+      </c>
       <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>OPS TSA Checkpoint Wait Times</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8709,7 +9521,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Tulip</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -8729,8 +9541,16 @@
       <c r="O139" t="n">
         <v>0</v>
       </c>
-      <c r="P139" t="inlineStr"/>
+      <c r="P139" s="2" t="n">
+        <v>45605</v>
+      </c>
       <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>Microsoft Fabric POC</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8768,7 +9588,7 @@
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>\Hydrangea</t>
+          <t>Hydrangea</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -8788,8 +9608,16 @@
       <c r="O140" t="n">
         <v>0</v>
       </c>
-      <c r="P140" t="inlineStr"/>
+      <c r="P140" s="2" t="n">
+        <v>45374</v>
+      </c>
       <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>Complete Tutorials</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8827,7 +9655,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>\Hydrangea</t>
+          <t>Hydrangea</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -8847,8 +9675,16 @@
       <c r="O141" t="n">
         <v>0</v>
       </c>
-      <c r="P141" t="inlineStr"/>
+      <c r="P141" s="2" t="n">
+        <v>45374</v>
+      </c>
       <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>Complete Tutorials</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8886,7 +9722,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>\Hydrangea</t>
+          <t>Hydrangea</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -8906,8 +9742,16 @@
       <c r="O142" t="n">
         <v>0</v>
       </c>
-      <c r="P142" t="inlineStr"/>
+      <c r="P142" s="2" t="n">
+        <v>45374</v>
+      </c>
       <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>Complete Tutorials</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8945,7 +9789,7 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>\Hydrangea</t>
+          <t>Hydrangea</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -8965,8 +9809,16 @@
       <c r="O143" t="n">
         <v>0</v>
       </c>
-      <c r="P143" t="inlineStr"/>
+      <c r="P143" s="2" t="n">
+        <v>45374</v>
+      </c>
       <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>Complete Tutorials</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -9000,7 +9852,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>\Lavender</t>
+          <t>Lavender</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -9020,8 +9872,16 @@
       <c r="O144" t="n">
         <v>0</v>
       </c>
-      <c r="P144" t="inlineStr"/>
+      <c r="P144" s="2" t="n">
+        <v>45500</v>
+      </c>
       <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>ML workshop</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -9055,7 +9915,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>\Lavender</t>
+          <t>Lavender</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -9075,8 +9935,16 @@
       <c r="O145" t="n">
         <v>0</v>
       </c>
-      <c r="P145" t="inlineStr"/>
+      <c r="P145" s="2" t="n">
+        <v>45500</v>
+      </c>
       <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>GenAI workshop</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -9114,7 +9982,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Dahlia</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -9134,8 +10002,16 @@
       <c r="O146" t="n">
         <v>1</v>
       </c>
-      <c r="P146" t="inlineStr"/>
+      <c r="P146" s="2" t="n">
+        <v>45395</v>
+      </c>
       <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>Microsoft Purview POC - Data Quality</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -9173,7 +10049,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>\Hydrangea</t>
+          <t>Hydrangea</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -9193,8 +10069,16 @@
       <c r="O147" t="n">
         <v>0</v>
       </c>
-      <c r="P147" t="inlineStr"/>
+      <c r="P147" s="2" t="n">
+        <v>45374</v>
+      </c>
       <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>Microsoft Purview POC - Data Quality</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -9232,7 +10116,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Dahlia</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -9252,8 +10136,16 @@
       <c r="O148" t="n">
         <v>1</v>
       </c>
-      <c r="P148" t="inlineStr"/>
+      <c r="P148" s="2" t="n">
+        <v>45395</v>
+      </c>
       <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>AskIT/ServiceNow fields imported Data Warehouse.</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -9291,7 +10183,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>\Jasmine</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -9311,8 +10203,16 @@
       <c r="O149" t="n">
         <v>0</v>
       </c>
-      <c r="P149" t="inlineStr"/>
+      <c r="P149" s="2" t="n">
+        <v>45437</v>
+      </c>
       <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>Research</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -9350,7 +10250,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Hibiscus</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -9370,8 +10270,16 @@
       <c r="O150" t="n">
         <v>3</v>
       </c>
-      <c r="P150" t="inlineStr"/>
+      <c r="P150" s="2" t="n">
+        <v>45542</v>
+      </c>
       <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>BI reports Finance source cash posting</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -9409,7 +10317,7 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>\Hydrangea</t>
+          <t>Hydrangea</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -9429,8 +10337,16 @@
       <c r="O151" t="n">
         <v>0</v>
       </c>
-      <c r="P151" t="inlineStr"/>
+      <c r="P151" s="2" t="n">
+        <v>45374</v>
+      </c>
       <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>Cash Posting Finance source</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -9468,7 +10384,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Orchid</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -9488,8 +10404,16 @@
       <c r="O152" t="n">
         <v>1</v>
       </c>
-      <c r="P152" t="inlineStr"/>
+      <c r="P152" s="2" t="n">
+        <v>45584</v>
+      </c>
       <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Maintenance Division data collection analysis Q3/V.100</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9527,7 +10451,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>\</t>
+          <t>Sunflower</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -9547,8 +10471,16 @@
       <c r="O153" t="n">
         <v>3</v>
       </c>
-      <c r="P153" t="inlineStr"/>
+      <c r="P153" s="2" t="n">
+        <v>45416</v>
+      </c>
       <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Maintenance Division data analytics Q3/Vision100</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ADO_output.xlsx
+++ b/ADO_output.xlsx
@@ -968,7 +968,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Jasmine</t>
+          <t>Hydrangea</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>45437</v>
+        <v>45374</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Marigold</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1188,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>45661</v>
+        <v>45703</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3521,7 +3521,7 @@
         <v>4</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>45682</v>
+        <v>45661</v>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
@@ -4410,7 +4410,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Jasmine</t>
+          <t>Zinnia</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="2" t="n">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Bluebell</t>
+          <t>Lily</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5857,7 +5857,7 @@
         <v>2</v>
       </c>
       <c r="P84" s="2" t="n">
-        <v>45745</v>
+        <v>45682</v>
       </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Marigold</t>
+          <t>Anemone</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6830,7 +6830,7 @@
         <v>4</v>
       </c>
       <c r="P99" s="2" t="n">
-        <v>45703</v>
+        <v>45777</v>
       </c>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr">
@@ -7093,7 +7093,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Zinnia</t>
+          <t>Chrysanthemum</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7114,7 +7114,7 @@
         <v>2</v>
       </c>
       <c r="P103" s="2" t="n">
-        <v>45458</v>
+        <v>45521</v>
       </c>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr">
@@ -7227,7 +7227,7 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Orchid</t>
+          <t>Hydrangea</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7248,7 +7248,7 @@
         <v>2</v>
       </c>
       <c r="P105" s="2" t="n">
-        <v>45584</v>
+        <v>45374</v>
       </c>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Lavender</t>
+          <t>Dahlia</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -7922,7 +7922,7 @@
         <v>2</v>
       </c>
       <c r="P115" s="2" t="n">
-        <v>45500</v>
+        <v>45395</v>
       </c>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr">
@@ -8106,7 +8106,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Jasmine</t>
+          <t>Chrysanthemum</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -8127,7 +8127,7 @@
         <v>2</v>
       </c>
       <c r="P118" s="2" t="n">
-        <v>45437</v>
+        <v>45521</v>
       </c>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr">
@@ -8173,7 +8173,7 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Hydrangea</t>
+          <t>Daffodil</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -8194,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="P119" s="2" t="n">
-        <v>45374</v>
+        <v>45479</v>
       </c>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Orchid</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="P121" s="2" t="n">
-        <v>45584</v>
+        <v>45437</v>
       </c>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Daffodil</t>
+          <t>Sunflower</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -9073,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="P132" s="2" t="n">
-        <v>45479</v>
+        <v>45416</v>
       </c>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr">
@@ -9186,7 +9186,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Poppy</t>
+          <t>Orchid</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="P134" s="2" t="n">
-        <v>45626</v>
+        <v>45584</v>
       </c>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr">
@@ -9320,7 +9320,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Hibiscus</t>
+          <t>Orchid</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="P136" s="2" t="n">
-        <v>45542</v>
+        <v>45584</v>
       </c>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr">
@@ -9387,7 +9387,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Jasmine</t>
+          <t>Chrysanthemum</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -9408,7 +9408,7 @@
         <v>4</v>
       </c>
       <c r="P137" s="2" t="n">
-        <v>45437</v>
+        <v>45521</v>
       </c>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Tulip</t>
+          <t>Lavender</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="P139" s="2" t="n">
-        <v>45605</v>
+        <v>45500</v>
       </c>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Dahlia</t>
+          <t>Orchid</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -10003,7 +10003,7 @@
         <v>1</v>
       </c>
       <c r="P146" s="2" t="n">
-        <v>45395</v>
+        <v>45584</v>
       </c>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Dahlia</t>
+          <t>Hibiscus</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -10137,7 +10137,7 @@
         <v>1</v>
       </c>
       <c r="P148" s="2" t="n">
-        <v>45395</v>
+        <v>45542</v>
       </c>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr">
@@ -10250,7 +10250,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Hibiscus</t>
+          <t>Orchid</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -10271,7 +10271,7 @@
         <v>3</v>
       </c>
       <c r="P150" s="2" t="n">
-        <v>45542</v>
+        <v>45584</v>
       </c>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Orchid</t>
+          <t>Zinnia</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -10405,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="P152" s="2" t="n">
-        <v>45584</v>
+        <v>45458</v>
       </c>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Sunflower</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -10472,7 +10472,7 @@
         <v>3</v>
       </c>
       <c r="P153" s="2" t="n">
-        <v>45416</v>
+        <v>45437</v>
       </c>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr">
